--- a/exel/users.xlsx
+++ b/exel/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Иван</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>10К</t>
+  </si>
+  <si>
+    <t>10И</t>
+  </si>
+  <si>
+    <t>10З</t>
   </si>
 </sst>
 </file>
@@ -1200,13 +1206,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -1234,6 +1240,34 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/exel/users.xlsx
+++ b/exel/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Иван</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>10К</t>
-  </si>
-  <si>
-    <t>10И</t>
-  </si>
-  <si>
-    <t>10З</t>
   </si>
 </sst>
 </file>
@@ -1206,13 +1200,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -1242,34 +1236,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/exel/users.xlsx
+++ b/exel/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Иван</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>10К</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Строганов</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -1200,13 +1209,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -1236,6 +1245,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/exel/users.xlsx
+++ b/exel/users.xlsx
@@ -27,7 +27,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Класс/классы</t>
+  </si>
+  <si>
+    <t>Роль</t>
+  </si>
   <si>
     <t>Иван</t>
   </si>
@@ -41,6 +56,9 @@
     <t>10Т</t>
   </si>
   <si>
+    <t>Student</t>
+  </si>
+  <si>
     <t>Вован</t>
   </si>
   <si>
@@ -57,6 +75,12 @@
   </si>
   <si>
     <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>10Т 10К</t>
+  </si>
+  <si>
+    <t>Teacher</t>
   </si>
 </sst>
 </file>
@@ -1209,54 +1233,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="12.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="12.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
